--- a/prediccion_test_Arte_2019_1GUI.xlsx
+++ b/prediccion_test_Arte_2019_1GUI.xlsx
@@ -448,7 +448,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="2">
-        <v>0.06421760762622175</v>
+        <v>0.0416404785512432</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -465,7 +465,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="2">
-        <v>0.008269455914287738</v>
+        <v>0.002715963322161397</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -482,7 +482,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="3">
-        <v>0.9548226154490548</v>
+        <v>0.9826451446902678</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -499,7 +499,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="3">
-        <v>0.819751580022555</v>
+        <v>0.880985153082555</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -516,7 +516,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="3">
-        <v>0.9923235421712356</v>
+        <v>0.9985834714189742</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -533,7 +533,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="2">
-        <v>0.4762891434934396</v>
+        <v>0.5060525770861948</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -550,7 +550,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="3">
-        <v>0.9764664386082289</v>
+        <v>0.9930754739842091</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -567,7 +567,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="2">
-        <v>0.1507183252718254</v>
+        <v>0.1251581203587606</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -584,7 +584,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="2">
-        <v>0.3093410610575613</v>
+        <v>0.3053876633679458</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -601,7 +601,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="2">
-        <v>0.3996523864489082</v>
+        <v>0.4138008074487045</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -618,7 +618,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="3">
-        <v>0.8663272669034698</v>
+        <v>0.9211539996044869</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -635,7 +635,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="3">
-        <v>0.9813782395271712</v>
+        <v>0.9950259826941799</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -652,7 +652,7 @@
         <v>5</v>
       </c>
       <c r="E14" s="2">
-        <v>0.5729943278102867</v>
+        <v>0.6203349399395256</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -669,7 +669,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="3">
-        <v>0.9990507481812143</v>
+        <v>0.9999278332753526</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -686,7 +686,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="3">
-        <v>0.7930443476823303</v>
+        <v>0.8562111514961392</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -703,7 +703,7 @@
         <v>5</v>
       </c>
       <c r="E17" s="3">
-        <v>0.9119192092015977</v>
+        <v>0.9558155341417235</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -720,7 +720,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
-        <v>0.9998028850952553</v>
+        <v>0.9999923651335415</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -737,7 +737,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="3">
-        <v>0.9736274074160068</v>
+        <v>0.9918675676666124</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -754,7 +754,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="2">
-        <v>0.5729943278102867</v>
+        <v>0.6203349399395256</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -771,7 +771,7 @@
         <v>5</v>
       </c>
       <c r="E21" s="2">
-        <v>0.6293324743238178</v>
+        <v>0.6847679188716863</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -788,7 +788,7 @@
         <v>5</v>
       </c>
       <c r="E22" s="2">
-        <v>0.000746833070940478</v>
+        <v>0.0001027978116130424</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -805,7 +805,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="3">
-        <v>0.9670874247986707</v>
+        <v>0.9888857914203587</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -822,7 +822,7 @@
         <v>5</v>
       </c>
       <c r="E24" s="2">
-        <v>0.4569329022805092</v>
+        <v>0.4828246427920996</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -839,7 +839,7 @@
         <v>5</v>
       </c>
       <c r="E25" s="2">
-        <v>0.04316535999829907</v>
+        <v>0.0247123728263714</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -856,7 +856,7 @@
         <v>5</v>
       </c>
       <c r="E26" s="3">
-        <v>0.9592653432794916</v>
+        <v>0.9849953105355905</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -873,7 +873,7 @@
         <v>5</v>
       </c>
       <c r="E27" s="2">
-        <v>0.2008525669673928</v>
+        <v>0.1796680563047559</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -889,8 +889,8 @@
       <c r="D28" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="2">
-        <v>0.7331120230845887</v>
+      <c r="E28" s="3">
+        <v>0.7968718588578781</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -907,7 +907,7 @@
         <v>5</v>
       </c>
       <c r="E29" s="3">
-        <v>0.8663272669034698</v>
+        <v>0.9211539996044869</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -924,7 +924,7 @@
         <v>5</v>
       </c>
       <c r="E30" s="2">
-        <v>0.04316535999829907</v>
+        <v>0.0247123728263714</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -941,7 +941,7 @@
         <v>5</v>
       </c>
       <c r="E31" s="2">
-        <v>0.008269455914287738</v>
+        <v>0.002715963322161397</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -958,7 +958,7 @@
         <v>5</v>
       </c>
       <c r="E32" s="2">
-        <v>0.5345107832454349</v>
+        <v>0.5753004565566369</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -975,7 +975,7 @@
         <v>5</v>
       </c>
       <c r="E33" s="3">
-        <v>0.9194471995283751</v>
+        <v>0.9609909207053895</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -992,7 +992,7 @@
         <v>5</v>
       </c>
       <c r="E34" s="2">
-        <v>0.6107949322006566</v>
+        <v>0.6637925226939168</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1009,7 +1009,7 @@
         <v>5</v>
       </c>
       <c r="E35" s="2">
-        <v>0.000746833070940478</v>
+        <v>0.0001027978116130424</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1026,7 +1026,7 @@
         <v>5</v>
       </c>
       <c r="E36" s="2">
-        <v>0.000746833070940478</v>
+        <v>0.0001027978116130424</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1043,7 +1043,7 @@
         <v>5</v>
       </c>
       <c r="E37" s="3">
-        <v>0.8322546361222385</v>
+        <v>0.892172292074241</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1060,7 +1060,7 @@
         <v>5</v>
       </c>
       <c r="E38" s="3">
-        <v>0.8322546361222385</v>
+        <v>0.892172292074241</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1077,7 +1077,7 @@
         <v>5</v>
       </c>
       <c r="E39" s="2">
-        <v>0.000746833070940478</v>
+        <v>0.0001027978116130424</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1094,7 +1094,7 @@
         <v>5</v>
       </c>
       <c r="E40" s="3">
-        <v>0.944771280809474</v>
+        <v>0.976992380869981</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1111,7 +1111,7 @@
         <v>5</v>
       </c>
       <c r="E41" s="3">
-        <v>0.9932940369066492</v>
+        <v>0.9988309066390507</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1128,7 +1128,7 @@
         <v>5</v>
       </c>
       <c r="E42" s="3">
-        <v>0.9986863375510457</v>
+        <v>0.999885264847523</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1145,7 +1145,7 @@
         <v>5</v>
       </c>
       <c r="E43" s="3">
-        <v>0.79304434768233</v>
+        <v>0.8562111514961389</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1162,7 +1162,7 @@
         <v>5</v>
       </c>
       <c r="E44" s="3">
-        <v>0.9194471995283751</v>
+        <v>0.9609909207053895</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1179,7 +1179,7 @@
         <v>5</v>
       </c>
       <c r="E45" s="3">
-        <v>0.9912314885697006</v>
+        <v>0.9982890664304466</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1196,7 +1196,7 @@
         <v>5</v>
       </c>
       <c r="E46" s="3">
-        <v>0.9978964101522474</v>
+        <v>0.9997754687196021</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1213,7 +1213,7 @@
         <v>5</v>
       </c>
       <c r="E47" s="3">
-        <v>0.7488727725877542</v>
+        <v>0.8129279001770539</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1230,7 +1230,7 @@
         <v>5</v>
       </c>
       <c r="E48" s="2">
-        <v>0.6293324743238177</v>
+        <v>0.6847679188716861</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1247,7 +1247,7 @@
         <v>5</v>
       </c>
       <c r="E49" s="3">
-        <v>0.9194471995283751</v>
+        <v>0.9609909207053895</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1264,7 +1264,7 @@
         <v>5</v>
       </c>
       <c r="E50" s="3">
-        <v>0.819751580022555</v>
+        <v>0.880985153082555</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1281,7 +1281,7 @@
         <v>5</v>
       </c>
       <c r="E51" s="3">
-        <v>0.9941544615495722</v>
+        <v>0.99903816178404</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1298,7 +1298,7 @@
         <v>5</v>
       </c>
       <c r="E52" s="2">
-        <v>0.01383183531472953</v>
+        <v>0.005428219475586582</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1315,7 +1315,7 @@
         <v>5</v>
       </c>
       <c r="E53" s="2">
-        <v>0.000746833070940478</v>
+        <v>0.0001027978116130424</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1332,7 +1332,7 @@
         <v>5</v>
       </c>
       <c r="E54" s="3">
-        <v>0.9923235421712356</v>
+        <v>0.9985834714189742</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1348,8 +1348,8 @@
       <c r="D55" t="s">
         <v>5</v>
       </c>
-      <c r="E55" s="2">
-        <v>0.7168665082269123</v>
+      <c r="E55" s="3">
+        <v>0.7800203887085015</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1366,7 +1366,7 @@
         <v>5</v>
       </c>
       <c r="E56" s="2">
-        <v>0.5151240566352098</v>
+        <v>0.5523684503152145</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1383,7 +1383,7 @@
         <v>5</v>
       </c>
       <c r="E57" s="2">
-        <v>0.5538159324502947</v>
+        <v>0.5979803376777842</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1400,7 +1400,7 @@
         <v>5</v>
       </c>
       <c r="E58" s="3">
-        <v>0.9038787798052939</v>
+        <v>0.9501003483759982</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1417,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="E59" s="3">
-        <v>0.9670874247986707</v>
+        <v>0.9888857914203587</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1434,7 +1434,7 @@
         <v>5</v>
       </c>
       <c r="E60" s="3">
-        <v>0.9932940369066492</v>
+        <v>0.9988309066390507</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1451,7 +1451,7 @@
         <v>5</v>
       </c>
       <c r="E61" s="3">
-        <v>0.9194471995283751</v>
+        <v>0.9609909207053895</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1468,7 +1468,7 @@
         <v>5</v>
       </c>
       <c r="E62" s="3">
-        <v>0.9499980644491912</v>
+        <v>0.9799875183868204</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1485,7 +1485,7 @@
         <v>5</v>
       </c>
       <c r="E63" s="2">
-        <v>0.5729943278102865</v>
+        <v>0.6203349399395254</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1502,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="E64" s="2">
-        <v>0.592001687807901</v>
+        <v>0.6422943450860448</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1519,7 +1519,7 @@
         <v>5</v>
       </c>
       <c r="E65" s="2">
-        <v>0.4569329022805092</v>
+        <v>0.4828246427920996</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1536,7 +1536,7 @@
         <v>5</v>
       </c>
       <c r="E66" s="2">
-        <v>0.1008312277241259</v>
+        <v>0.07482483090813197</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1553,7 +1553,7 @@
         <v>5</v>
       </c>
       <c r="E67" s="2">
-        <v>0.004776838078197176</v>
+        <v>0.001292595329763335</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1570,7 +1570,7 @@
         <v>5</v>
       </c>
       <c r="E68" s="3">
-        <v>0.9941544615495722</v>
+        <v>0.99903816178404</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1587,7 +1587,7 @@
         <v>5</v>
       </c>
       <c r="E69" s="3">
-        <v>0.8953113636833046</v>
+        <v>0.9438104249387858</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1604,7 +1604,7 @@
         <v>5</v>
       </c>
       <c r="E70" s="3">
-        <v>0.9991957512939431</v>
+        <v>0.9999430412968399</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1621,7 +1621,7 @@
         <v>5</v>
       </c>
       <c r="E71" s="3">
-        <v>0.9912314885697004</v>
+        <v>0.9982890664304466</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1638,7 +1638,7 @@
         <v>5</v>
       </c>
       <c r="E72" s="2">
-        <v>0.000746833070940478</v>
+        <v>0.0001027978116130424</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1655,7 +1655,7 @@
         <v>5</v>
       </c>
       <c r="E73" s="3">
-        <v>0.9499980644491912</v>
+        <v>0.9799875183868204</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1672,7 +1672,7 @@
         <v>5</v>
       </c>
       <c r="E74" s="2">
-        <v>0.000746833070940478</v>
+        <v>0.0001027978116130424</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1689,7 +1689,7 @@
         <v>5</v>
       </c>
       <c r="E75" s="3">
-        <v>0.9886326035138132</v>
+        <v>0.9975273939688166</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1706,7 +1706,7 @@
         <v>5</v>
       </c>
       <c r="E76" s="2">
-        <v>0.01220171488908794</v>
+        <v>0.004586695332009949</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1723,7 +1723,7 @@
         <v>5</v>
       </c>
       <c r="E77" s="2">
-        <v>0.000746833070940478</v>
+        <v>0.0001027978116130424</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1740,7 +1740,7 @@
         <v>5</v>
       </c>
       <c r="E78" s="3">
-        <v>0.9971521687482268</v>
+        <v>0.9996542887988195</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1757,7 +1757,7 @@
         <v>5</v>
       </c>
       <c r="E79" s="3">
-        <v>0.9932940369066492</v>
+        <v>0.9988309066390507</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1774,7 +1774,7 @@
         <v>5</v>
       </c>
       <c r="E80" s="3">
-        <v>0.9978964101522474</v>
+        <v>0.9997754687196021</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1791,7 +1791,7 @@
         <v>5</v>
       </c>
       <c r="E81" s="3">
-        <v>0.9592653432794916</v>
+        <v>0.9849953105355905</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1808,7 +1808,7 @@
         <v>5</v>
       </c>
       <c r="E82" s="3">
-        <v>0.9988820765269093</v>
+        <v>0.999908858700051</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1825,7 +1825,7 @@
         <v>5</v>
       </c>
       <c r="E83" s="3">
-        <v>0.9961781659825659</v>
+        <v>0.9994744560914591</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1842,7 +1842,7 @@
         <v>5</v>
       </c>
       <c r="E84" s="3">
-        <v>0.9391221377550747</v>
+        <v>0.9736282950121617</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1859,7 +1859,7 @@
         <v>5</v>
       </c>
       <c r="E85" s="3">
-        <v>0.9886326035138132</v>
+        <v>0.9975273939688166</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1876,7 +1876,7 @@
         <v>5</v>
       </c>
       <c r="E86" s="3">
-        <v>0.9988820765269093</v>
+        <v>0.999908858700051</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1893,7 +1893,7 @@
         <v>5</v>
       </c>
       <c r="E87" s="3">
-        <v>0.9886326035138132</v>
+        <v>0.9975273939688166</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1910,7 +1910,7 @@
         <v>5</v>
       </c>
       <c r="E88" s="3">
-        <v>0.9941544615495722</v>
+        <v>0.99903816178404</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1927,7 +1927,7 @@
         <v>5</v>
       </c>
       <c r="E89" s="3">
-        <v>0.9995946845034065</v>
+        <v>0.9999785990579826</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1944,7 +1944,7 @@
         <v>5</v>
       </c>
       <c r="E90" s="3">
-        <v>0.9988820765269093</v>
+        <v>0.999908858700051</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1961,7 +1961,7 @@
         <v>5</v>
       </c>
       <c r="E91" s="3">
-        <v>0.9961781659825659</v>
+        <v>0.9994744560914591</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1978,7 +1978,7 @@
         <v>5</v>
       </c>
       <c r="E92" s="3">
-        <v>0.9971521687482268</v>
+        <v>0.9996542887988195</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1995,7 +1995,7 @@
         <v>5</v>
       </c>
       <c r="E93" s="3">
-        <v>0.9834874871824799</v>
+        <v>0.9958038822141678</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2012,7 +2012,7 @@
         <v>5</v>
       </c>
       <c r="E94" s="3">
-        <v>0.9813782395271712</v>
+        <v>0.9950259826941799</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2029,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="E95" s="2">
-        <v>0.000746833070940478</v>
+        <v>0.0001027978116130424</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2046,7 +2046,7 @@
         <v>5</v>
       </c>
       <c r="E96" s="3">
-        <v>0.9984597255285098</v>
+        <v>0.9998560264809372</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2063,7 +2063,7 @@
         <v>5</v>
       </c>
       <c r="E97" s="3">
-        <v>0.9834874871824799</v>
+        <v>0.9958038822141678</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2080,7 +2080,7 @@
         <v>5</v>
       </c>
       <c r="E98" s="3">
-        <v>0.9900055600310841</v>
+        <v>0.9979399612752657</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2097,7 +2097,7 @@
         <v>5</v>
       </c>
       <c r="E99" s="3">
-        <v>0.9886326035138132</v>
+        <v>0.9975273939688166</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2114,7 +2114,7 @@
         <v>5</v>
       </c>
       <c r="E100" s="3">
-        <v>0.9834874871824799</v>
+        <v>0.9958038822141678</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2131,7 +2131,7 @@
         <v>5</v>
       </c>
       <c r="E101" s="3">
-        <v>0.9633467788325863</v>
+        <v>0.9870665511710808</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2148,7 +2148,7 @@
         <v>5</v>
       </c>
       <c r="E102" s="3">
-        <v>0.9923235421712356</v>
+        <v>0.9985834714189742</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2165,7 +2165,7 @@
         <v>5</v>
       </c>
       <c r="E103" s="3">
-        <v>0.9592653432794916</v>
+        <v>0.9849953105355905</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2182,7 +2182,7 @@
         <v>5</v>
       </c>
       <c r="E104" s="3">
-        <v>0.9971521687482268</v>
+        <v>0.9996542887988195</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2199,7 +2199,7 @@
         <v>5</v>
       </c>
       <c r="E105" s="2">
-        <v>0.000746833070940478</v>
+        <v>0.0001027978116130424</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2216,7 +2216,7 @@
         <v>5</v>
       </c>
       <c r="E106" s="3">
-        <v>0.9961781659825659</v>
+        <v>0.9994744560914591</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2233,7 +2233,7 @@
         <v>5</v>
       </c>
       <c r="E107" s="3">
-        <v>0.9834874871824799</v>
+        <v>0.9958038822141678</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2250,7 +2250,7 @@
         <v>5</v>
       </c>
       <c r="E108" s="3">
-        <v>0.9971521687482268</v>
+        <v>0.9996542887988195</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2267,7 +2267,7 @@
         <v>5</v>
       </c>
       <c r="E109" s="2">
-        <v>0.1746446671744939</v>
+        <v>0.1507770953543204</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2284,7 +2284,7 @@
         <v>5</v>
       </c>
       <c r="E110" s="3">
-        <v>0.9592653432794916</v>
+        <v>0.9849953105355905</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2301,7 +2301,7 @@
         <v>5</v>
       </c>
       <c r="E111" s="3">
-        <v>0.9853888028845791</v>
+        <v>0.9964711115838363</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2318,7 +2318,7 @@
         <v>5</v>
       </c>
       <c r="E112" s="3">
-        <v>0.9900055600310841</v>
+        <v>0.9979399612752657</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2335,7 +2335,7 @@
         <v>5</v>
       </c>
       <c r="E113" s="3">
-        <v>0.9633467788325863</v>
+        <v>0.9870665511710808</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2352,7 +2352,7 @@
         <v>5</v>
       </c>
       <c r="E114" s="3">
-        <v>0.9834874871824799</v>
+        <v>0.9958038822141678</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2369,7 +2369,7 @@
         <v>5</v>
       </c>
       <c r="E115" s="3">
-        <v>0.9900055600310841</v>
+        <v>0.9979399612752657</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2386,7 +2386,7 @@
         <v>5</v>
       </c>
       <c r="E116" s="3">
-        <v>0.9961781659825659</v>
+        <v>0.9994744560914591</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2403,7 +2403,7 @@
         <v>5</v>
       </c>
       <c r="E117" s="3">
-        <v>0.9949154935606489</v>
+        <v>0.9992111739223306</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2420,7 +2420,7 @@
         <v>5</v>
       </c>
       <c r="E118" s="3">
-        <v>0.9633467788325863</v>
+        <v>0.9870665511710808</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2437,7 +2437,7 @@
         <v>5</v>
       </c>
       <c r="E119" s="3">
-        <v>0.9923235421712356</v>
+        <v>0.9985834714189742</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2454,7 +2454,7 @@
         <v>5</v>
       </c>
       <c r="E120" s="3">
-        <v>0.9853888028845791</v>
+        <v>0.9964711115838363</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2471,7 +2471,7 @@
         <v>5</v>
       </c>
       <c r="E121" s="3">
-        <v>0.9995946845034065</v>
+        <v>0.9999785990579826</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2488,7 +2488,7 @@
         <v>5</v>
       </c>
       <c r="E122" s="3">
-        <v>0.9790438606583378</v>
+        <v>0.9941221265744572</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2505,7 +2505,7 @@
         <v>5</v>
       </c>
       <c r="E123" s="2">
-        <v>0.553815932450295</v>
+        <v>0.5979803376777847</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2522,7 +2522,7 @@
         <v>5</v>
       </c>
       <c r="E124" s="3">
-        <v>0.9548226154490548</v>
+        <v>0.9826451446902678</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2539,7 +2539,7 @@
         <v>5</v>
       </c>
       <c r="E125" s="3">
-        <v>0.9900055600310841</v>
+        <v>0.9979399612752657</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2556,7 +2556,7 @@
         <v>5</v>
       </c>
       <c r="E126" s="3">
-        <v>0.9998643704866146</v>
+        <v>0.9999955278258518</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2573,7 +2573,7 @@
         <v>5</v>
       </c>
       <c r="E127" s="3">
-        <v>0.9986863375510457</v>
+        <v>0.999885264847523</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2590,7 +2590,7 @@
         <v>5</v>
       </c>
       <c r="E128" s="3">
-        <v>0.9119192092015977</v>
+        <v>0.9558155341417235</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2607,7 +2607,7 @@
         <v>5</v>
       </c>
       <c r="E129" s="3">
-        <v>0.9038787798052939</v>
+        <v>0.9501003483759982</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2624,7 +2624,7 @@
         <v>5</v>
       </c>
       <c r="E130" s="3">
-        <v>0.9998643704866146</v>
+        <v>0.9999955278258518</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2641,7 +2641,7 @@
         <v>5</v>
       </c>
       <c r="E131" s="3">
-        <v>0.9886326035138132</v>
+        <v>0.9975273939688166</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2658,7 +2658,7 @@
         <v>5</v>
       </c>
       <c r="E132" s="3">
-        <v>0.9813782395271712</v>
+        <v>0.9950259826941799</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2675,7 +2675,7 @@
         <v>5</v>
       </c>
       <c r="E133" s="3">
-        <v>0.9330309631294547</v>
+        <v>0.9698626027492435</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2692,7 +2692,7 @@
         <v>5</v>
       </c>
       <c r="E134" s="3">
-        <v>0.9853888028845791</v>
+        <v>0.9964711115838363</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2709,7 +2709,7 @@
         <v>5</v>
       </c>
       <c r="E135" s="3">
-        <v>0.9391221377550747</v>
+        <v>0.9736282950121617</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2726,7 +2726,7 @@
         <v>5</v>
       </c>
       <c r="E136" s="3">
-        <v>0.8663272669034698</v>
+        <v>0.9211539996044869</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2743,7 +2743,7 @@
         <v>5</v>
       </c>
       <c r="E137" s="3">
-        <v>0.9548226154490548</v>
+        <v>0.9826451446902678</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2760,7 +2760,7 @@
         <v>5</v>
       </c>
       <c r="E138" s="3">
-        <v>0.9994265162097781</v>
+        <v>0.9999648598517668</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2777,7 +2777,7 @@
         <v>5</v>
       </c>
       <c r="E139" s="2">
-        <v>0.1623948052293172</v>
+        <v>0.1375607912375947</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2794,7 +2794,7 @@
         <v>5</v>
       </c>
       <c r="E140" s="2">
-        <v>0.01564642417996653</v>
+        <v>0.006404276338741299</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2811,7 +2811,7 @@
         <v>5</v>
       </c>
       <c r="E141" s="2">
-        <v>0.000746833070940478</v>
+        <v>0.0001027978116130424</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2828,7 +2828,7 @@
         <v>5</v>
       </c>
       <c r="E142" s="3">
-        <v>0.9932940369066492</v>
+        <v>0.9988309066390507</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2845,7 +2845,7 @@
         <v>5</v>
       </c>
       <c r="E143" s="3">
-        <v>0.9670874247986707</v>
+        <v>0.9888857914203587</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2862,7 +2862,7 @@
         <v>5</v>
       </c>
       <c r="E144" s="2">
-        <v>0.3809672729623348</v>
+        <v>0.3912677762741495</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2879,7 +2879,7 @@
         <v>5</v>
       </c>
       <c r="E145" s="3">
-        <v>0.944771280809474</v>
+        <v>0.976992380869981</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2896,7 +2896,7 @@
         <v>5</v>
       </c>
       <c r="E146" s="3">
-        <v>0.9038787798052939</v>
+        <v>0.9501003483759982</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2913,7 +2913,7 @@
         <v>5</v>
       </c>
       <c r="E147" s="3">
-        <v>0.9391221377550745</v>
+        <v>0.9736282950121616</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2930,7 +2930,7 @@
         <v>5</v>
       </c>
       <c r="E148" s="3">
-        <v>0.9633467788325863</v>
+        <v>0.9870665511710808</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2947,7 +2947,7 @@
         <v>5</v>
       </c>
       <c r="E149" s="2">
-        <v>0.03136062690072439</v>
+        <v>0.01619265231634104</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -2964,7 +2964,7 @@
         <v>5</v>
       </c>
       <c r="E150" s="3">
-        <v>0.9764664386082289</v>
+        <v>0.9930754739842091</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -2981,7 +2981,7 @@
         <v>5</v>
       </c>
       <c r="E151" s="3">
-        <v>0.8765456995296389</v>
+        <v>0.9293698985128813</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -2998,7 +2998,7 @@
         <v>5</v>
       </c>
       <c r="E152" s="3">
-        <v>0.8765456995296389</v>
+        <v>0.9293698985128813</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3015,7 +3015,7 @@
         <v>5</v>
       </c>
       <c r="E153" s="3">
-        <v>0.8322546361222385</v>
+        <v>0.892172292074241</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3032,7 +3032,7 @@
         <v>5</v>
       </c>
       <c r="E154" s="3">
-        <v>0.7788560727206837</v>
+        <v>0.8426028091289167</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3049,7 +3049,7 @@
         <v>5</v>
       </c>
       <c r="E155" s="2">
-        <v>0.4957015071057841</v>
+        <v>0.5292600022576888</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3066,7 +3066,7 @@
         <v>5</v>
       </c>
       <c r="E156" s="3">
-        <v>0.9955870204962189</v>
+        <v>0.9993551118604055</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3083,7 +3083,7 @@
         <v>5</v>
       </c>
       <c r="E157" s="3">
-        <v>0.9548226154490548</v>
+        <v>0.9826451446902678</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3100,7 +3100,7 @@
         <v>5</v>
       </c>
       <c r="E158" s="3">
-        <v>0.8441849690712624</v>
+        <v>0.9025813606818756</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3117,7 +3117,7 @@
         <v>5</v>
       </c>
       <c r="E159" s="2">
-        <v>0.000746833070940478</v>
+        <v>0.0001027978116130424</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3134,7 +3134,7 @@
         <v>5</v>
       </c>
       <c r="E160" s="2">
-        <v>0.2923909024007493</v>
+        <v>0.2852875481208542</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3151,7 +3151,7 @@
         <v>5</v>
       </c>
       <c r="E161" s="3">
-        <v>0.7641270163314631</v>
+        <v>0.828174275603059</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3168,7 +3168,7 @@
         <v>5</v>
       </c>
       <c r="E162" s="2">
-        <v>0.000746833070940478</v>
+        <v>0.0001027978116130424</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3185,7 +3185,7 @@
         <v>5</v>
       </c>
       <c r="E163" s="3">
-        <v>0.9886326035138132</v>
+        <v>0.9975273939688166</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3202,7 +3202,7 @@
         <v>5</v>
       </c>
       <c r="E164" s="3">
-        <v>0.9886326035138132</v>
+        <v>0.9975273939688166</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3219,7 +3219,7 @@
         <v>5</v>
       </c>
       <c r="E165" s="3">
-        <v>0.9975497352349164</v>
+        <v>0.9997209456189504</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3236,7 +3236,7 @@
         <v>5</v>
       </c>
       <c r="E166" s="3">
-        <v>0.819751580022555</v>
+        <v>0.880985153082555</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3253,7 +3253,7 @@
         <v>5</v>
       </c>
       <c r="E167" s="3">
-        <v>0.9955870204962189</v>
+        <v>0.9993551118604055</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3270,7 +3270,7 @@
         <v>5</v>
       </c>
       <c r="E168" s="3">
-        <v>0.9988820765269093</v>
+        <v>0.999908858700051</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3287,7 +3287,7 @@
         <v>5</v>
       </c>
       <c r="E169" s="3">
-        <v>0.9548226154490548</v>
+        <v>0.9826451446902678</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3304,7 +3304,7 @@
         <v>5</v>
       </c>
       <c r="E170" s="3">
-        <v>0.9736274074160068</v>
+        <v>0.9918675676666124</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3321,7 +3321,7 @@
         <v>5</v>
       </c>
       <c r="E171" s="3">
-        <v>0.9941544615495722</v>
+        <v>0.99903816178404</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3338,7 +3338,7 @@
         <v>5</v>
       </c>
       <c r="E172" s="3">
-        <v>0.9853888028845791</v>
+        <v>0.9964711115838363</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3355,7 +3355,7 @@
         <v>5</v>
       </c>
       <c r="E173" s="2">
-        <v>0.000746833070940478</v>
+        <v>0.0001027978116130424</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3372,7 +3372,7 @@
         <v>5</v>
       </c>
       <c r="E174" s="3">
-        <v>0.9900055600310841</v>
+        <v>0.9979399612752657</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3389,7 +3389,7 @@
         <v>5</v>
       </c>
       <c r="E175" s="3">
-        <v>0.9986863375510457</v>
+        <v>0.999885264847523</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3406,7 +3406,7 @@
         <v>5</v>
       </c>
       <c r="E176" s="3">
-        <v>0.9736274074160068</v>
+        <v>0.9918675676666124</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3423,7 +3423,7 @@
         <v>5</v>
       </c>
       <c r="E177" s="3">
-        <v>0.9736274074160068</v>
+        <v>0.9918675676666124</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3440,7 +3440,7 @@
         <v>5</v>
       </c>
       <c r="E178" s="3">
-        <v>0.8953113636833046</v>
+        <v>0.9438104249387858</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3457,7 +3457,7 @@
         <v>5</v>
       </c>
       <c r="E179" s="3">
-        <v>0.9886326035138132</v>
+        <v>0.9975273939688166</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3474,7 +3474,7 @@
         <v>5</v>
       </c>
       <c r="E180" s="3">
-        <v>0.9391221377550747</v>
+        <v>0.9736282950121617</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3491,7 +3491,7 @@
         <v>5</v>
       </c>
       <c r="E181" s="3">
-        <v>0.944771280809474</v>
+        <v>0.976992380869981</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3508,7 +3508,7 @@
         <v>5</v>
       </c>
       <c r="E182" s="3">
-        <v>0.9955870204962189</v>
+        <v>0.9993551118604055</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3525,7 +3525,7 @@
         <v>5</v>
       </c>
       <c r="E183" s="3">
-        <v>0.9991957512939431</v>
+        <v>0.9999430412968399</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3542,7 +3542,7 @@
         <v>5</v>
       </c>
       <c r="E184" s="2">
-        <v>0.000746833070940478</v>
+        <v>0.0001027978116130424</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3559,7 +3559,7 @@
         <v>5</v>
       </c>
       <c r="E185" s="3">
-        <v>0.8765456995296389</v>
+        <v>0.9293698985128813</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3576,7 +3576,7 @@
         <v>5</v>
       </c>
       <c r="E186" s="3">
-        <v>0.9949154935606489</v>
+        <v>0.9992111739223306</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3593,7 +3593,7 @@
         <v>5</v>
       </c>
       <c r="E187" s="3">
-        <v>0.9941544615495722</v>
+        <v>0.99903816178404</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3610,7 +3610,7 @@
         <v>5</v>
       </c>
       <c r="E188" s="3">
-        <v>0.9988820765269093</v>
+        <v>0.999908858700051</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3627,7 +3627,7 @@
         <v>5</v>
       </c>
       <c r="E189" s="3">
-        <v>0.9961781659825659</v>
+        <v>0.9994744560914591</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3644,7 +3644,7 @@
         <v>5</v>
       </c>
       <c r="E190" s="3">
-        <v>0.9499980644491912</v>
+        <v>0.9799875183868204</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3661,7 +3661,7 @@
         <v>5</v>
       </c>
       <c r="E191" s="3">
-        <v>0.9991957512939431</v>
+        <v>0.9999430412968399</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3678,7 +3678,7 @@
         <v>5</v>
       </c>
       <c r="E192" s="2">
-        <v>0.000746833070940478</v>
+        <v>0.0001027978116130424</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3695,7 +3695,7 @@
         <v>5</v>
       </c>
       <c r="E193" s="3">
-        <v>0.9971521687482268</v>
+        <v>0.9996542887988195</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3712,7 +3712,7 @@
         <v>5</v>
       </c>
       <c r="E194" s="3">
-        <v>0.9971521687482268</v>
+        <v>0.9996542887988195</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3729,7 +3729,7 @@
         <v>5</v>
       </c>
       <c r="E195" s="3">
-        <v>0.9978964101522474</v>
+        <v>0.9997754687196021</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3746,7 +3746,7 @@
         <v>5</v>
       </c>
       <c r="E196" s="3">
-        <v>0.9391221377550747</v>
+        <v>0.9736282950121617</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3763,7 +3763,7 @@
         <v>5</v>
       </c>
       <c r="E197" s="2">
-        <v>0.000746833070940478</v>
+        <v>0.0001027978116130424</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3780,7 +3780,7 @@
         <v>5</v>
       </c>
       <c r="E198" s="3">
-        <v>0.9870986265460882</v>
+        <v>0.9970414784072634</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3797,7 +3797,7 @@
         <v>5</v>
       </c>
       <c r="E199" s="3">
-        <v>0.9736274074160068</v>
+        <v>0.9918675676666124</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3814,7 +3814,7 @@
         <v>5</v>
       </c>
       <c r="E200" s="3">
-        <v>0.9736274074160068</v>
+        <v>0.9918675676666124</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3831,7 +3831,7 @@
         <v>5</v>
       </c>
       <c r="E201" s="2">
-        <v>0.000746833070940478</v>
+        <v>0.0001027978116130424</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -3848,7 +3848,7 @@
         <v>5</v>
       </c>
       <c r="E202" s="3">
-        <v>0.819751580022555</v>
+        <v>0.880985153082555</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -3865,7 +3865,7 @@
         <v>5</v>
       </c>
       <c r="E203" s="3">
-        <v>0.9391221377550747</v>
+        <v>0.9736282950121617</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -3882,7 +3882,7 @@
         <v>5</v>
       </c>
       <c r="E204" s="3">
-        <v>0.9764664386082289</v>
+        <v>0.9930754739842091</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3899,7 +3899,7 @@
         <v>5</v>
       </c>
       <c r="E205" s="3">
-        <v>0.9264787207233295</v>
+        <v>0.9656616283843638</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -3916,7 +3916,7 @@
         <v>5</v>
       </c>
       <c r="E206" s="2">
-        <v>0.259851851571635</v>
+        <v>0.2470885954509039</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -3933,7 +3933,7 @@
         <v>5</v>
       </c>
       <c r="E207" s="3">
-        <v>0.9961781659825659</v>
+        <v>0.9994744560914591</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3950,7 +3950,7 @@
         <v>5</v>
       </c>
       <c r="E208" s="3">
-        <v>0.9391221377550747</v>
+        <v>0.9736282950121617</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -3967,7 +3967,7 @@
         <v>5</v>
       </c>
       <c r="E209" s="2">
-        <v>0.000746833070940478</v>
+        <v>0.0001027978116130424</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -3984,7 +3984,7 @@
         <v>5</v>
       </c>
       <c r="E210" s="3">
-        <v>0.944771280809474</v>
+        <v>0.976992380869981</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4001,7 +4001,7 @@
         <v>5</v>
       </c>
       <c r="E211" s="3">
-        <v>0.9988820765269093</v>
+        <v>0.999908858700051</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4018,7 +4018,7 @@
         <v>5</v>
       </c>
       <c r="E212" s="2">
-        <v>0.04316535999829907</v>
+        <v>0.0247123728263714</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4035,7 +4035,7 @@
         <v>5</v>
       </c>
       <c r="E213" s="2">
-        <v>0.6475744960446503</v>
+        <v>0.7051639726862919</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4052,7 +4052,7 @@
         <v>5</v>
       </c>
       <c r="E214" s="3">
-        <v>0.9978964101522474</v>
+        <v>0.9997754687196021</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4069,7 +4069,7 @@
         <v>5</v>
       </c>
       <c r="E215" s="3">
-        <v>0.9995946845034065</v>
+        <v>0.9999785990579826</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4086,7 +4086,7 @@
         <v>5</v>
       </c>
       <c r="E216" s="2">
-        <v>0.000746833070940478</v>
+        <v>0.0001027978116130424</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4103,7 +4103,7 @@
         <v>5</v>
       </c>
       <c r="E217" s="3">
-        <v>0.9991957512939431</v>
+        <v>0.9999430412968399</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4120,7 +4120,7 @@
         <v>5</v>
       </c>
       <c r="E218" s="3">
-        <v>0.7641270163314631</v>
+        <v>0.828174275603059</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4137,7 +4137,7 @@
         <v>5</v>
       </c>
       <c r="E219" s="3">
-        <v>0.9912314885697006</v>
+        <v>0.9982890664304466</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4154,7 +4154,7 @@
         <v>5</v>
       </c>
       <c r="E220" s="2">
-        <v>0.000746833070940478</v>
+        <v>0.0001027978116130424</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4171,7 +4171,7 @@
         <v>5</v>
       </c>
       <c r="E221" s="3">
-        <v>0.9978964101522474</v>
+        <v>0.9997754687196021</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4188,7 +4188,7 @@
         <v>5</v>
       </c>
       <c r="E222" s="3">
-        <v>0.9995946845034065</v>
+        <v>0.9999785990579826</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4205,7 +4205,7 @@
         <v>5</v>
       </c>
       <c r="E223" s="3">
-        <v>0.9705076184573579</v>
+        <v>0.9904782824855066</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4222,7 +4222,7 @@
         <v>5</v>
       </c>
       <c r="E224" s="3">
-        <v>0.944771280809474</v>
+        <v>0.976992380869981</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4239,7 +4239,7 @@
         <v>5</v>
       </c>
       <c r="E225" s="3">
-        <v>0.9592653432794916</v>
+        <v>0.9849953105355905</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4256,7 +4256,7 @@
         <v>5</v>
       </c>
       <c r="E226" s="2">
-        <v>0.000746833070940478</v>
+        <v>0.0001027978116130424</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4273,7 +4273,7 @@
         <v>5</v>
       </c>
       <c r="E227" s="2">
-        <v>0.02807582981938228</v>
+        <v>0.01397954327249096</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4290,7 +4290,7 @@
         <v>5</v>
       </c>
       <c r="E228" s="3">
-        <v>0.9998643704866146</v>
+        <v>0.9999955278258518</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4307,7 +4307,7 @@
         <v>5</v>
       </c>
       <c r="E229" s="3">
-        <v>0.9932940369066492</v>
+        <v>0.9988309066390507</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4324,7 +4324,7 @@
         <v>5</v>
       </c>
       <c r="E230" s="3">
-        <v>0.9705076184573579</v>
+        <v>0.9904782824855066</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4341,7 +4341,7 @@
         <v>5</v>
       </c>
       <c r="E231" s="2">
-        <v>0.000746833070940478</v>
+        <v>0.0001027978116130424</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4358,7 +4358,7 @@
         <v>5</v>
       </c>
       <c r="E232" s="3">
-        <v>0.9988820765269093</v>
+        <v>0.999908858700051</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4375,7 +4375,7 @@
         <v>5</v>
       </c>
       <c r="E233" s="3">
-        <v>0.9949154935606489</v>
+        <v>0.9992111739223306</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4392,7 +4392,7 @@
         <v>5</v>
       </c>
       <c r="E234" s="3">
-        <v>0.9975497352349164</v>
+        <v>0.9997209456189504</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4409,7 +4409,7 @@
         <v>5</v>
       </c>
       <c r="E235" s="3">
-        <v>0.9900055600310841</v>
+        <v>0.9979399612752657</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4420,7 +4420,7 @@
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
       <c r="E236" s="4">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4431,7 +4431,7 @@
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="4">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4444,10 +4444,10 @@
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="4">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="B240" s="4">
-        <v>5.958044508638578</v>
+        <v>6.015729586868827</v>
       </c>
     </row>
   </sheetData>
